--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -776,318 +776,318 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLND</t>
+          <t>BT-A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>British Land</t>
+          <t>BT Group</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Real Estate Investment Trusts</t>
+          <t>Fixed Line Telecommunications</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BT-A</t>
+          <t>BNZL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BT Group</t>
+          <t>Bunzl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fixed Line Telecommunications</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BNZL</t>
+          <t>BRBY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bunzl</t>
+          <t>Burberry</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Personal Goods</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BRBY</t>
+          <t>CNA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Burberry</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Personal Goods</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CNA</t>
+          <t>CCH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Coca-Cola HBC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Beverages</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CCH</t>
+          <t>CPG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coca-Cola HBC</t>
+          <t>Compass Group</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CPG</t>
+          <t>CTEC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass Group</t>
+          <t>Convatec</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Health Care</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>CRH</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Convatec</t>
+          <t>CRH plc</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Construction &amp; Materials</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>CRDA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CRH plc</t>
+          <t>Croda International</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Construction &amp; Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRDA</t>
+          <t>DCC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Croda International</t>
+          <t>DCC plc</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DCC</t>
+          <t>DGE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DCC plc</t>
+          <t>Diageo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Beverages</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DGE</t>
+          <t>EDV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Diageo</t>
+          <t>Endeavour Mining</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EDV</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Endeavour Mining</t>
+          <t>Entain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>EXPN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Entain</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EXPN</t>
+          <t>FCIT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>Foreign &amp; Colonial Investment Trust</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FCIT</t>
+          <t>FLTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Foreign &amp; Colonial Investment Trust</t>
+          <t>Flutter Entertainment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FLTR</t>
+          <t>FRAS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flutter Entertainment</t>
+          <t>Frasers Group</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FRAS</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Frasers Group</t>
+          <t>Fresnillo plc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>GLEN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fresnillo plc</t>
+          <t>Glencore</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,29 +1099,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GLEN</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Glencore</t>
+          <t>GSK plc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GSK plc</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1133,102 +1133,102 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>HLMA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>Halma plc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Electronic &amp; Electrical Equipment</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HLMA</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Halma plc</t>
+          <t>Hargreaves Lansdown</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Electronic &amp; Electrical Equipment</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>HSX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hargreaves Lansdown</t>
+          <t>Hiscox</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Insurance</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HSX</t>
+          <t>HSBA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hiscox</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HSBA</t>
+          <t>IHG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>IHG Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IHG Hotels &amp; Resorts</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Engineering</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Non-life Insurance</t>
+          <t>Nonlife Insurance</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -470,63 +470,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABDN</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abrdn</t>
+          <t>Admiral Group</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Nonlife Insurance</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>AAF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Admiral Group</t>
+          <t>Airtel Africa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nonlife Insurance</t>
+          <t>Telecommunications</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAF</t>
+          <t>AAL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Airtel Africa</t>
+          <t>Anglo American plc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>ANTO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anglo American plc</t>
+          <t>Antofagasta plc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,408 +538,408 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANTO</t>
+          <t>AHT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Antofagasta plc</t>
+          <t>Ashtead Group</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AHT</t>
+          <t>ABF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ashtead Group</t>
+          <t>Associated British Foods</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Food Producers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ABF</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Associated British Foods</t>
+          <t>AstraZeneca</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Food Producers</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AstraZeneca</t>
+          <t>Auto Trader Group</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUTO</t>
+          <t>AV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Auto Trader Group</t>
+          <t>Aviva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AV</t>
+          <t>BME</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aviva</t>
+          <t>B&amp;M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Retailers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BME</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B&amp;M</t>
+          <t>BAE Systems</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Retailers</t>
+          <t>Aerospace &amp; Defence</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BARC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BAE Systems</t>
+          <t>Barclays</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BARC</t>
+          <t>BDEV</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>Barratt Developments</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Household Goods &amp; Home Construction</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BDEV</t>
+          <t>BEZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Barratt Developments</t>
+          <t>Beazley Group</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Insurance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BEZ</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beazley Group</t>
+          <t>Berkeley Group Holdings</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Household Goods &amp; Home Construction</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Berkeley Group Holdings</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Oil &amp; Gas Producers</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>BATS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>British American Tobacco</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Producers</t>
+          <t>Tobacco</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BATS</t>
+          <t>BT-A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>British American Tobacco</t>
+          <t>BT Group</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Fixed Line Telecommunications</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BT-A</t>
+          <t>BNZL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BT Group</t>
+          <t>Bunzl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fixed Line Telecommunications</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BNZL</t>
+          <t>BRBY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bunzl</t>
+          <t>Burberry</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Personal Goods</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BRBY</t>
+          <t>CNA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Burberry</t>
+          <t>Centrica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Personal Goods</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CNA</t>
+          <t>CCH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Coca-Cola HBC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Beverages</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CCH</t>
+          <t>CPG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Coca-Cola HBC</t>
+          <t>Compass Group</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CPG</t>
+          <t>CTEC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass Group</t>
+          <t>Convatec</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Health Care</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>CRH</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Convatec</t>
+          <t>CRH plc</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Construction &amp; Materials</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>CRDA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CRH plc</t>
+          <t>Croda International</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Construction &amp; Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRDA</t>
+          <t>DCC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Croda International</t>
+          <t>DCC plc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DCC</t>
+          <t>DPH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DCC plc</t>
+          <t>Dechra Pharmaceuticals</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
@@ -963,131 +963,131 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EDV</t>
+          <t>DPLM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Endeavour Mining</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Industrial Support Services</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>EDV</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Entain</t>
+          <t>Endeavour Mining</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EXPN</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>Entain</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FCIT</t>
+          <t>EXPN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Foreign &amp; Colonial Investment Trust</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FLTR</t>
+          <t>FCIT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flutter Entertainment</t>
+          <t>Foreign &amp; Colonial Investment Trust</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FRAS</t>
+          <t>FLTR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Frasers Group</t>
+          <t>Flutter Entertainment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>FRAS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fresnillo plc</t>
+          <t>Frasers Group</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GLEN</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glencore</t>
+          <t>Fresnillo plc</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,29 +1099,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>GLEN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GSK plc</t>
+          <t>Glencore</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>GSK plc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1133,204 +1133,204 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HLMA</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Halma plc</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Electronic &amp; Electrical Equipment</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>HLMA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hargreaves Lansdown</t>
+          <t>Halma plc</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Electronic &amp; Electrical Equipment</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HSX</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hiscox</t>
+          <t>Hargreaves Lansdown</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HSBA</t>
+          <t>HIK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>Hikma Pharmaceuticals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Pharmaceuticals and Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>HSBA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>IHG Hotels &amp; Resorts</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IMI</t>
+          <t>IHG</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IMI</t>
+          <t>IHG Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IMB</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Imperial Brands</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Engineering</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IMB</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Informa</t>
+          <t>Imperial Brands</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Tobacco</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>INF</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>International Airlines Group</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ITRK</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Intertek</t>
+          <t>International Airlines Group</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>ITRK</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JD Sports</t>
+          <t>Intertek</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>General Retailers</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JMAT</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Johnson Matthey</t>
+          <t>JD Sports</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>General Retailers</t>
         </is>
       </c>
     </row>
@@ -1439,153 +1439,153 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MRO</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Melrose Industries</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Automobiles &amp; Parts</t>
+          <t>Diversified Retailers</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MNDI</t>
+          <t>MRO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mondi</t>
+          <t>Melrose Industries</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Forestry &amp; Paper</t>
+          <t>Automobiles &amp; Parts</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>MNDI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>National Grid plc</t>
+          <t>Mondi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gas, Water &amp; Multi-utilities</t>
+          <t>Forestry &amp; Paper</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NWG</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NatWest Group</t>
+          <t>National Grid plc</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Gas, Water &amp; Multi-utilities</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NXT</t>
+          <t>NWG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Next plc</t>
+          <t>NatWest Group</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>General Retailers</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>OCDO</t>
+          <t>NXT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ocado Group</t>
+          <t>Next plc</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailers</t>
+          <t>General Retailers</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PSON</t>
+          <t>OCDO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pearson plc</t>
+          <t>Ocado Group</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Food &amp; Drug Retailers</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>PSON</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pershing Square Holdings</t>
+          <t>Pearson plc</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PSN</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Persimmon plc</t>
+          <t>Pershing Square Holdings</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -878,216 +878,216 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>CRDA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CRH plc</t>
+          <t>Croda International</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Construction &amp; Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CRDA</t>
+          <t>DCC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Croda International</t>
+          <t>DCC plc</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DCC</t>
+          <t>DPH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DCC plc</t>
+          <t>Dechra Pharmaceuticals</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DPH</t>
+          <t>DGE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dechra Pharmaceuticals</t>
+          <t>Diageo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Beverages</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DGE</t>
+          <t>DPLM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Diageo</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Industrial Support Services</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DPLM</t>
+          <t>EDV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Endeavour Mining</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Industrial Support Services</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EDV</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Endeavour Mining</t>
+          <t>Entain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>EXPN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Entain</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EXPN</t>
+          <t>FCIT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>Foreign &amp; Colonial Investment Trust</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FCIT</t>
+          <t>FLTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Foreign &amp; Colonial Investment Trust</t>
+          <t>Flutter Entertainment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FLTR</t>
+          <t>FRAS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flutter Entertainment</t>
+          <t>Frasers Group</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FRAS</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Frasers Group</t>
+          <t>Fresnillo plc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>GLEN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fresnillo plc</t>
+          <t>Glencore</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,29 +1099,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GLEN</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Glencore</t>
+          <t>GSK plc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GSK plc</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1133,68 +1133,68 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>HLMA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>Halma plc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Electronic &amp; Electrical Equipment</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HLMA</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Halma plc</t>
+          <t>Hargreaves Lansdown</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Electronic &amp; Electrical Equipment</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>HIK</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hargreaves Lansdown</t>
+          <t>Hikma Pharmaceuticals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Pharmaceuticals and Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HIK</t>
+          <t>HWDN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hikma Pharmaceuticals</t>
+          <t>Howdens Joinery</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pharmaceuticals and Biotechnology</t>
+          <t>Home Improvement Retailers</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nonlife Insurance</t>
+          <t>Insurance</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Telecommunications Services</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Food Producers</t>
+          <t>Food &amp; Tobacco</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fixed Line Telecommunications</t>
+          <t>Telecommunications Services</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Multiline Utilities</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Health Care Equipment &amp; Supplies</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Retailers</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Electronic &amp; Electrical Equipment</t>
+          <t>Electronic Equipment &amp; Parts</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pharmaceuticals and Biotechnology</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Home Improvement Retailers</t>
+          <t>Homebuilding &amp; Construction Supplies</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Machinery, Tools, Heavy Vehicles, Trains &amp; Ships</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Asset Managers</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Diversified Retailers</t>
+          <t>Food &amp; Drug Retailing</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Automobiles &amp; Parts</t>
+          <t>Aerospace &amp; Defence</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Forestry &amp; Paper</t>
+          <t>Containers &amp; Packaging</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gas, Water &amp; Multi-utilities</t>
+          <t>Multiline Utilities</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailers</t>
+          <t>Food &amp; Drug Retailing</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Equity Investment Instruments</t>
+          <t>Collective Investments</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gas, Water &amp; Multi-utilities</t>
+          <t>Multiline Utilities</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Services</t>
+          <t>Health Care Equipment &amp; Supplies</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Electrical Utilities &amp; Independent Power Producers</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailers</t>
+          <t>Food &amp; Drug Retailing</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Gas, Water &amp; Multi-utilities</t>
+          <t>Multiline Utilities</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Real Estate Investment Trusts</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -1150,136 +1150,136 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>HIK</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hargreaves Lansdown</t>
+          <t>Hikma Pharmaceuticals</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HIK</t>
+          <t>HWDN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hikma Pharmaceuticals</t>
+          <t>Howdens Joinery</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Homebuilding &amp; Construction Supplies</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HWDN</t>
+          <t>HSBA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Howdens Joinery</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Homebuilding &amp; Construction Supplies</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HSBA</t>
+          <t>IHG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>IHG Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IHG Hotels &amp; Resorts</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Machinery, Tools, Heavy Vehicles, Trains &amp; Ships</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IMI</t>
+          <t>IMB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IMI</t>
+          <t>Imperial Brands</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Machinery, Tools, Heavy Vehicles, Trains &amp; Ships</t>
+          <t>Tobacco</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IMB</t>
+          <t>INF</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Imperial Brands</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Informa</t>
+          <t>Intermediate Capital Group</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -912,165 +912,165 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DPH</t>
+          <t>DGE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dechra Pharmaceuticals</t>
+          <t>Diageo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Beverages</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DGE</t>
+          <t>DPLM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Diageo</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Industrial Support Services</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DPLM</t>
+          <t>EDV</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Endeavour Mining</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Industrial Support Services</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EDV</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Endeavour Mining</t>
+          <t>Entain</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>EXPN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Entain</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EXPN</t>
+          <t>FCIT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>Foreign &amp; Colonial Investment Trust</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FCIT</t>
+          <t>FLTR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Foreign &amp; Colonial Investment Trust</t>
+          <t>Flutter Entertainment</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FLTR</t>
+          <t>FRAS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flutter Entertainment</t>
+          <t>Frasers Group</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Retailers</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FRAS</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Frasers Group</t>
+          <t>Fresnillo plc</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Retailers</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>GLEN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fresnillo plc</t>
+          <t>Glencore</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1082,29 +1082,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GLEN</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glencore</t>
+          <t>GSK plc</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GSK plc</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1116,301 +1116,301 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>HLMA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>Halma plc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Electronic Equipment &amp; Parts</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HLMA</t>
+          <t>HIK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Halma plc</t>
+          <t>Hikma Pharmaceuticals</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Parts</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HIK</t>
+          <t>HWDN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hikma Pharmaceuticals</t>
+          <t>Howdens Joinery</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Homebuilding &amp; Construction Supplies</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HWDN</t>
+          <t>HSBA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Howdens Joinery</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Homebuilding &amp; Construction Supplies</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HSBA</t>
+          <t>IHG</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>IHG Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IHG</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>IHG Hotels &amp; Resorts</t>
+          <t>IMI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Machinery, Tools, Heavy Vehicles, Trains &amp; Ships</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IMI</t>
+          <t>IMB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IMI</t>
+          <t>Imperial Brands</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Machinery, Tools, Heavy Vehicles, Trains &amp; Ships</t>
+          <t>Tobacco</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IMB</t>
+          <t>INF</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Imperial Brands</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Informa</t>
+          <t>Intermediate Capital Group</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Intermediate Capital Group</t>
+          <t>International Airlines Group</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Travel &amp; Leisure</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>ITRK</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>International Airlines Group</t>
+          <t>Intertek</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Support Services</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ITRK</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Intertek</t>
+          <t>JD Sports</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>General Retailers</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>KGF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JD Sports</t>
+          <t>Kingfisher plc</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>General Retailers</t>
+          <t>Retailers</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KGF</t>
+          <t>LAND</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kingfisher plc</t>
+          <t>Land Securities</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Retailers</t>
+          <t>Real Estate Investment Trusts</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LAND</t>
+          <t>LGEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Land Securities</t>
+          <t>Legal &amp; General</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Real Estate Investment Trusts</t>
+          <t>Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LGEN</t>
+          <t>LLOY</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Legal &amp; General</t>
+          <t>Lloyds Banking Group</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LLOY</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lloyds Banking Group</t>
+          <t>London Stock Exchange Group</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>London Stock Exchange Group</t>
+          <t>M&amp;G</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,170 +1422,170 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M&amp;G</t>
+          <t>Marks &amp; Spencer</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Food &amp; Drug Retailing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MKS</t>
+          <t>MRO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marks &amp; Spencer</t>
+          <t>Melrose Industries</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailing</t>
+          <t>Aerospace &amp; Defence</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MRO</t>
+          <t>MNDI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Melrose Industries</t>
+          <t>Mondi</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Containers &amp; Packaging</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MNDI</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mondi</t>
+          <t>National Grid plc</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging</t>
+          <t>Multiline Utilities</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>NWG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>National Grid plc</t>
+          <t>NatWest Group</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Multiline Utilities</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NWG</t>
+          <t>NXT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NatWest Group</t>
+          <t>Next plc</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>General Retailers</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NXT</t>
+          <t>OCDO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Next plc</t>
+          <t>Ocado Group</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>General Retailers</t>
+          <t>Food &amp; Drug Retailers</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>OCDO</t>
+          <t>PSON</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ocado Group</t>
+          <t>Pearson plc</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailers</t>
+          <t>Media</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PSON</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pearson plc</t>
+          <t>Pershing Square Holdings</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>PSN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pershing Square Holdings</t>
+          <t>Persimmon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Household Goods &amp; Home Construction</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Telecommunications Services</t>
+          <t>Telecommunications services</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Food &amp; Tobacco</t>
+          <t>Food &amp; tobacco</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Pharmaceuticals &amp; biotechnology</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Life insurance</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Aerospace &amp; defence</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Household goods &amp; home construction</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Household goods &amp; home construction</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Producers</t>
+          <t>Oil &amp; gas producers</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Telecommunications Services</t>
+          <t>Telecommunications services</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Personal Goods</t>
+          <t>Personal goods</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Multiline Utilities</t>
+          <t>Multiline utilities</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies</t>
+          <t>Health care equipment &amp; supplies</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -939,41 +939,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Industrial Support Services</t>
+          <t>Industrial Support services</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EDV</t>
+          <t>ENT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Endeavour Mining</t>
+          <t>Entain</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Travel &amp; leisure</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENT</t>
+          <t>EZJ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Entain</t>
+          <t>EasyJet</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Travel &amp; leisure</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Travel &amp; leisure</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Pharmaceuticals &amp; biotechnology</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Pharmaceuticals &amp; biotechnology</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Parts</t>
+          <t>Electronic equipment &amp; parts</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Pharmaceuticals &amp; biotechnology</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Homebuilding &amp; Construction Supplies</t>
+          <t>Homebuilding &amp; construction supplies</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Travel &amp; leisure</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Machinery, Tools, Heavy Vehicles, Trains &amp; Ships</t>
+          <t>Machinery, tools, heavy vehicles, trains &amp; ships</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Travel &amp; Leisure</t>
+          <t>Travel &amp; leisure</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>General Retailers</t>
+          <t>General retailers</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Real Estate Investment Trusts</t>
+          <t>Real estate investment trusts</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Life insurance</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailing</t>
+          <t>Food &amp; drug retailing</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Aerospace &amp; defence</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging</t>
+          <t>Containers &amp; packaging</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Multiline Utilities</t>
+          <t>Multiline utilities</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>General Retailers</t>
+          <t>General retailers</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailers</t>
+          <t>Food &amp; drug retailers</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Household goods &amp; home construction</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Life insurance</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Life insurance</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Household goods &amp; home construction</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Support Services</t>
+          <t>Support services</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Aerospace &amp; defence</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Software &amp; Computer Services</t>
+          <t>Software &amp; computer services</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailing</t>
+          <t>Food &amp; drug retailing</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Collective Investments</t>
+          <t>Collective investments</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Real Estate Investment Trusts</t>
+          <t>Real estate investment trusts</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Multiline Utilities</t>
+          <t>Multiline utilities</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Producers</t>
+          <t>Oil &amp; gas producers</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>General Industrials</t>
+          <t>General industrials</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>General Industrials</t>
+          <t>General industrials</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies</t>
+          <t>Health care equipment &amp; supplies</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>General Industrials</t>
+          <t>General industrials</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Industrial Engineering</t>
+          <t>Industrial engineering</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Electrical Utilities &amp; Independent Power Producers</t>
+          <t>Electrical utilities &amp; independent power producers</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Household Goods &amp; Home Construction</t>
+          <t>Household goods &amp; home construction</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Food &amp; Drug Retailing</t>
+          <t>Food &amp; drug retailing</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Personal Goods</t>
+          <t>Personal goods</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Multiline Utilities</t>
+          <t>Multiline utilities</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Real Estate Investment Trusts</t>
+          <t>Real estate investment trusts</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mobile Telecommunications</t>
+          <t>Mobile telecommunications</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Industrial Goods and Services</t>
+          <t>Industrial goods and services</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Foreign &amp; Colonial Investment Trust</t>
+          <t>F &amp; C Investment Trust</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AV</t>
+          <t>AV.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BA.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>BP.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BT-A</t>
+          <t>BT.A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>ICG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1303,7 +1303,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>JD.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>NG.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1711,7 +1711,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>RR.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1898,7 +1898,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>SN.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TW.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UU</t>
+          <t>UU.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Beazley Group</t>
+          <t>Beazley</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AV.</t>
+          <t>AV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BA.</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BP.</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BT.A</t>
+          <t>BT-A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1303,7 +1303,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JD.</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1711,7 +1711,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RR.</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TW.</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UU.</t>
+          <t>UU</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/ftse_100_tickers.xlsx
@@ -1014,46 +1014,46 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FLTR</t>
+          <t>FRAS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Flutter Entertainment</t>
+          <t>Frasers Group</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Travel &amp; leisure</t>
+          <t>Retailers</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FRAS</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Frasers Group</t>
+          <t>Fresnillo plc</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Retailers</t>
+          <t>Mining</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>GLEN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fresnillo plc</t>
+          <t>Glencore</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1065,29 +1065,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GLEN</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Glencore</t>
+          <t>GSK plc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>Pharmaceuticals &amp; biotechnology</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GSK plc</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,34 +1099,34 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>HLMA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Haleon</t>
+          <t>Halma plc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; biotechnology</t>
+          <t>Electronic equipment &amp; parts</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HLMA</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Halma plc</t>
+          <t>Hargreaves Lansdown</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Electronic equipment &amp; parts</t>
+          <t>Financial services</t>
         </is>
       </c>
     </row>
